--- a/clientdata/New DB Structure.xlsx
+++ b/clientdata/New DB Structure.xlsx
@@ -732,6 +732,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,9 +742,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,20 +1076,20 @@
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="24"/>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="63"/>
+      <c r="I2" s="64"/>
       <c r="J2" s="24"/>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="63"/>
+      <c r="L2" s="64"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1432,25 +1432,25 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="28"/>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="63"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="63" t="s">
+      <c r="H19" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="63"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="28"/>
-      <c r="K19" s="63" t="s">
+      <c r="K19" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="63"/>
+      <c r="L19" s="64"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
@@ -1661,25 +1661,25 @@
       </c>
     </row>
     <row r="29" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="65"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="28"/>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="63"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="64" t="s">
+      <c r="H29" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="65"/>
+      <c r="I29" s="66"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="63" t="s">
+      <c r="K29" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="L29" s="63"/>
+      <c r="L29" s="64"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
@@ -1898,25 +1898,25 @@
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="63"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="63" t="s">
+      <c r="E39" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="63"/>
+      <c r="F39" s="64"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="63" t="s">
+      <c r="H39" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="I39" s="63"/>
+      <c r="I39" s="64"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="63" t="s">
+      <c r="K39" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="L39" s="63"/>
+      <c r="L39" s="64"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
@@ -2219,10 +2219,10 @@
       <c r="I52" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K52" s="64" t="s">
+      <c r="K52" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="L52" s="65"/>
+      <c r="L52" s="66"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="26" t="s">
@@ -2363,18 +2363,18 @@
       </c>
     </row>
     <row r="62" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="66" t="s">
+      <c r="B62" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="66"/>
-      <c r="E62" s="66" t="s">
+      <c r="C62" s="63"/>
+      <c r="E62" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F62" s="66"/>
-      <c r="H62" s="63" t="s">
+      <c r="F62" s="63"/>
+      <c r="H62" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="I62" s="63"/>
+      <c r="I62" s="64"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="32" t="s">
@@ -2395,10 +2395,10 @@
       <c r="I63" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="K63" s="64" t="s">
+      <c r="K63" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="L63" s="65"/>
+      <c r="L63" s="66"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="33" t="s">
@@ -2777,22 +2777,22 @@
       </c>
     </row>
     <row r="82" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="63" t="s">
+      <c r="B82" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="C82" s="63"/>
-      <c r="E82" s="64" t="s">
+      <c r="C82" s="64"/>
+      <c r="E82" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="F82" s="65"/>
-      <c r="H82" s="64" t="s">
+      <c r="F82" s="66"/>
+      <c r="H82" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="I82" s="65"/>
-      <c r="K82" s="63" t="s">
+      <c r="I82" s="66"/>
+      <c r="K82" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="L82" s="63"/>
+      <c r="L82" s="64"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="43" t="s">
@@ -3231,22 +3231,22 @@
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B109" s="63" t="s">
+      <c r="B109" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="C109" s="63"/>
-      <c r="E109" s="63" t="s">
+      <c r="C109" s="64"/>
+      <c r="E109" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="F109" s="63"/>
-      <c r="H109" s="64" t="s">
+      <c r="F109" s="64"/>
+      <c r="H109" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="I109" s="65"/>
-      <c r="K109" s="64" t="s">
+      <c r="I109" s="66"/>
+      <c r="K109" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="L109" s="65"/>
+      <c r="L109" s="66"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B110" s="49" t="s">
